--- a/api/functions/Excel/template.xlsx
+++ b/api/functions/Excel/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greenlandscapingmalmo-my.sharepoint.com/personal/andreas_lofkvist_glnet_se/Documents/Dokument/Code/Projects/API/api/functions/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{804D21C8-6770-49C6-96D7-96DECC9CB1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F882E6-7180-4223-9AD9-B5E3B19D9AA3}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{804D21C8-6770-49C6-96D7-96DECC9CB1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{667B09D6-2C5A-47A3-A9C7-92E1D83CA8D8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trädexperterna " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>Trädspecialister</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Avverkningsledare, Nationell trädsäkring</t>
+  </si>
+  <si>
+    <t>Övrig arbetstid:</t>
+  </si>
+  <si>
+    <t>Tim:</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1767,148 +1773,140 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1919,70 +1917,85 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2332,206 +2345,206 @@
   <dimension ref="A1:AT146"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E137" sqref="E137:F137"/>
+      <pane ySplit="6" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ122" sqref="AJ122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="4.26953125" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" customWidth="1"/>
-    <col min="7" max="9" width="4.26953125" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="12" width="4.28515625" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="45" width="4.26953125" customWidth="1"/>
-    <col min="46" max="46" width="11.26953125" style="33" customWidth="1"/>
+    <col min="14" max="45" width="4.28515625" customWidth="1"/>
+    <col min="46" max="46" width="11.28515625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="212" t="s">
+    <row r="1" spans="1:46" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="234" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
       <c r="L1" s="90"/>
     </row>
-    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="152"/>
-      <c r="AM2" s="152"/>
-      <c r="AN2" s="152"/>
-      <c r="AO2" s="152"/>
-      <c r="AP2" s="152"/>
-      <c r="AQ2" s="152"/>
-      <c r="AR2" s="152"/>
-      <c r="AS2" s="152"/>
-      <c r="AT2" s="153"/>
-    </row>
-    <row r="3" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="254"/>
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="197"/>
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="197"/>
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="169"/>
+    </row>
+    <row r="3" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="146"/>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="146"/>
-      <c r="AL3" s="146"/>
-      <c r="AM3" s="146"/>
-      <c r="AN3" s="146"/>
-      <c r="AO3" s="146"/>
-      <c r="AP3" s="146"/>
-      <c r="AQ3" s="146"/>
-      <c r="AR3" s="146"/>
-      <c r="AS3" s="146"/>
-      <c r="AT3" s="147"/>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="B3" s="225"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="148"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="148"/>
+      <c r="AL3" s="148"/>
+      <c r="AM3" s="148"/>
+      <c r="AN3" s="148"/>
+      <c r="AO3" s="148"/>
+      <c r="AP3" s="148"/>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="148"/>
+      <c r="AT3" s="158"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="89"/>
       <c r="C4" s="27"/>
       <c r="D4" s="85"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="251"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="142"/>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="209"/>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
-      <c r="AL4" s="142"/>
-      <c r="AM4" s="142"/>
-      <c r="AN4" s="143"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="233"/>
+      <c r="AI4" s="161"/>
+      <c r="AJ4" s="161"/>
+      <c r="AK4" s="161"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="161"/>
+      <c r="AN4" s="145"/>
       <c r="AO4" s="85"/>
       <c r="AP4" s="85"/>
       <c r="AQ4" s="85"/>
       <c r="AR4" s="85"/>
       <c r="AS4" s="104"/>
-      <c r="AT4" s="205"/>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A5" s="169" t="s">
+      <c r="AT4" s="229"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="169" t="s">
+      <c r="B5" s="152"/>
+      <c r="C5" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="204"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="241"/>
       <c r="F5" s="86"/>
       <c r="G5" s="84"/>
       <c r="H5" s="84"/>
@@ -2572,14 +2585,14 @@
       <c r="AQ5" s="84"/>
       <c r="AR5" s="84"/>
       <c r="AS5" s="84"/>
-      <c r="AT5" s="206"/>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A6" s="171"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="204"/>
+      <c r="AT5" s="230"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" s="223"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="241"/>
       <c r="F6" s="35" t="s">
         <v>8</v>
       </c>
@@ -2700,15 +2713,15 @@
       <c r="AS6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AT6" s="206"/>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A7" s="231"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="161" t="s">
+      <c r="AT6" s="230"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" s="202"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="186"/>
       <c r="E7" s="87"/>
       <c r="F7" s="91"/>
       <c r="G7" s="91"/>
@@ -2752,11 +2765,11 @@
       <c r="AS7" s="72"/>
       <c r="AT7" s="130"/>
     </row>
-    <row r="8" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="157"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="143"/>
+    <row r="8" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="145"/>
       <c r="E8" s="87"/>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
@@ -2800,15 +2813,15 @@
       <c r="AS8" s="54"/>
       <c r="AT8" s="130"/>
     </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="164" t="s">
+    <row r="9" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="144" t="s">
+      <c r="B9" s="145"/>
+      <c r="C9" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="143"/>
+      <c r="D9" s="145"/>
       <c r="E9" s="87"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
@@ -2855,11 +2868,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A10" s="157"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="191"/>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10" s="144"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="87"/>
       <c r="F10" s="91"/>
       <c r="G10" s="91"/>
@@ -2908,11 +2921,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A11" s="149"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="143"/>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" s="146"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="87"/>
       <c r="F11" s="91"/>
       <c r="G11" s="91"/>
@@ -2959,11 +2972,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A12" s="149"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="143"/>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" s="146"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="145"/>
       <c r="E12" s="87"/>
       <c r="F12" s="91"/>
       <c r="G12" s="91"/>
@@ -3010,11 +3023,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A13" s="149"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="142"/>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" s="146"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="161"/>
       <c r="E13" s="87"/>
       <c r="F13" s="91"/>
       <c r="G13" s="91"/>
@@ -3061,11 +3074,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A14" s="149"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="142"/>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14" s="146"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="87"/>
       <c r="F14" s="76"/>
       <c r="G14" s="76"/>
@@ -3112,11 +3125,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A15" s="157"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="143"/>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15" s="144"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="87"/>
       <c r="F15" s="91"/>
       <c r="G15" s="91"/>
@@ -3163,11 +3176,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="192"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="143"/>
+    <row r="16" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="176"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="145"/>
       <c r="E16" s="87"/>
       <c r="F16" s="91"/>
       <c r="G16" s="91"/>
@@ -3214,15 +3227,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="164" t="s">
+    <row r="17" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="215" t="s">
+      <c r="B17" s="145"/>
+      <c r="C17" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="191"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="87"/>
       <c r="F17" s="122"/>
       <c r="G17" s="113"/>
@@ -3269,13 +3282,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="157"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="248" t="s">
+    <row r="18" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="144"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="143"/>
+      <c r="D18" s="145"/>
       <c r="E18" s="87"/>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
@@ -3322,11 +3335,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="157"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="143"/>
+    <row r="19" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="144"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="145"/>
       <c r="E19" s="87"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
@@ -3373,11 +3386,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="149"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="143"/>
+    <row r="20" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="146"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="145"/>
       <c r="E20" s="87"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
@@ -3421,11 +3434,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="149"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="143"/>
+    <row r="21" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="146"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="145"/>
       <c r="E21" s="87"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
@@ -3472,11 +3485,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="149"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="143"/>
+    <row r="22" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="146"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="145"/>
       <c r="E22" s="87"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
@@ -3523,11 +3536,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="157"/>
-      <c r="B23" s="143"/>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23" s="144"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="222"/>
-      <c r="D23" s="143"/>
+      <c r="D23" s="145"/>
       <c r="E23" s="87"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
@@ -3574,11 +3587,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="192"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="191"/>
+    <row r="24" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="176"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="87"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
@@ -3625,15 +3638,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="164" t="s">
+    <row r="25" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="143"/>
-      <c r="C25" s="144" t="s">
+      <c r="B25" s="145"/>
+      <c r="C25" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="143"/>
+      <c r="D25" s="145"/>
       <c r="E25" s="87"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
@@ -3680,13 +3693,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A26" s="164" t="s">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A26" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="142"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="161"/>
       <c r="E26" s="87"/>
       <c r="F26" s="53"/>
       <c r="G26" s="53"/>
@@ -3730,11 +3743,11 @@
       <c r="AS26" s="93"/>
       <c r="AT26" s="132"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A27" s="149"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="143"/>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A27" s="146"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
       <c r="E27" s="87"/>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -3783,11 +3796,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A28" s="157"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="143"/>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A28" s="144"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
       <c r="E28" s="87"/>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -3836,11 +3849,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A29" s="149"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="143"/>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A29" s="146"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="87"/>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -3889,11 +3902,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A30" s="149"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="143"/>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A30" s="146"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="87"/>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -3942,11 +3955,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A31" s="149"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="244"/>
-      <c r="D31" s="191"/>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A31" s="146"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="165"/>
       <c r="E31" s="87"/>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -3995,11 +4008,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A32" s="157"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="143"/>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
       <c r="E32" s="137"/>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -4046,11 +4059,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A33" s="157"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="143"/>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A33" s="144"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="87"/>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -4097,11 +4110,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A34" s="157"/>
-      <c r="B34" s="143"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="143"/>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A34" s="144"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="87"/>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -4148,11 +4161,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A35" s="149"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="143"/>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A35" s="146"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="87"/>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -4199,11 +4212,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="157"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="143"/>
+    <row r="36" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="144"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="87"/>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -4250,15 +4263,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A37" s="164" t="s">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A37" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="144" t="s">
+      <c r="B37" s="145"/>
+      <c r="C37" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="143"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="87"/>
       <c r="F37" s="117"/>
       <c r="G37" s="118"/>
@@ -4302,11 +4315,11 @@
       <c r="AS37" s="113"/>
       <c r="AT37" s="133"/>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A38" s="149"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="143"/>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A38" s="146"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="87"/>
       <c r="F38" s="95"/>
       <c r="G38" s="95"/>
@@ -4353,11 +4366,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A39" s="157"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="143"/>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
       <c r="E39" s="87"/>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -4404,11 +4417,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A40" s="149"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="143"/>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A40" s="146"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="87"/>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -4455,11 +4468,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A41" s="149"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="143"/>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A41" s="146"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
       <c r="E41" s="87"/>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -4506,11 +4519,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A42" s="157"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="143"/>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A42" s="144"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
       <c r="E42" s="87"/>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -4557,11 +4570,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A43" s="163"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="143"/>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A43" s="257"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
       <c r="E43" s="87"/>
       <c r="F43" s="52"/>
       <c r="G43" s="52"/>
@@ -4608,11 +4621,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A44" s="149"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="143"/>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A44" s="146"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
       <c r="E44" s="87"/>
       <c r="F44" s="52"/>
       <c r="G44" s="52"/>
@@ -4659,11 +4672,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A45" s="192"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="143"/>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A45" s="176"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
       <c r="E45" s="87"/>
       <c r="F45" s="52"/>
       <c r="G45" s="52"/>
@@ -4710,11 +4723,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A46" s="192"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="143"/>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A46" s="176"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
       <c r="E46" s="87"/>
       <c r="F46" s="52"/>
       <c r="G46" s="52"/>
@@ -4761,11 +4774,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="192"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="143"/>
+    <row r="47" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="176"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="87"/>
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
@@ -4812,15 +4825,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="164" t="s">
+    <row r="48" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="143"/>
+      <c r="B48" s="145"/>
       <c r="C48" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="191"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="87"/>
       <c r="F48" s="113"/>
       <c r="G48" s="113"/>
@@ -4867,13 +4880,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A49" s="149"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="238" t="s">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A49" s="146"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="191"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="87"/>
       <c r="F49" s="58"/>
       <c r="G49" s="58"/>
@@ -4920,11 +4933,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A50" s="157"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="191"/>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A50" s="144"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="87"/>
       <c r="K50" s="56"/>
       <c r="L50" s="56"/>
@@ -4956,11 +4969,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A51" s="149"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="196"/>
-      <c r="D51" s="191"/>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A51" s="146"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="87"/>
       <c r="F51" s="56"/>
       <c r="G51" s="56"/>
@@ -5007,11 +5020,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A52" s="149"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="191"/>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A52" s="146"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="199"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="87"/>
       <c r="F52" s="56"/>
       <c r="G52" s="56"/>
@@ -5058,11 +5071,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A53" s="149"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="143"/>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A53" s="146"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="145"/>
       <c r="E53" s="87"/>
       <c r="F53" s="56"/>
       <c r="G53" s="56"/>
@@ -5109,11 +5122,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A54" s="157"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="143"/>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A54" s="144"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="183"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="87"/>
       <c r="F54" s="56"/>
       <c r="G54" s="56"/>
@@ -5160,11 +5173,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A55" s="157"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="143"/>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A55" s="144"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="87"/>
       <c r="F55" s="56"/>
       <c r="G55" s="56"/>
@@ -5211,11 +5224,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A56" s="157"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="142"/>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A56" s="144"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="161"/>
       <c r="E56" s="87"/>
       <c r="F56" s="62"/>
       <c r="G56" s="62"/>
@@ -5262,11 +5275,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A57" s="149"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="142"/>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A57" s="146"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="161"/>
       <c r="E57" s="87"/>
       <c r="F57" s="56"/>
       <c r="G57" s="56"/>
@@ -5313,11 +5326,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A58" s="157"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="142"/>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A58" s="144"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="188"/>
+      <c r="D58" s="161"/>
       <c r="E58" s="87"/>
       <c r="F58" s="56"/>
       <c r="G58" s="56"/>
@@ -5364,11 +5377,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A59" s="149"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="142"/>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A59" s="146"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="188"/>
+      <c r="D59" s="161"/>
       <c r="E59" s="87"/>
       <c r="F59" s="56"/>
       <c r="G59" s="56"/>
@@ -5415,11 +5428,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A60" s="157"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="173"/>
-      <c r="D60" s="143"/>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A60" s="144"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="183"/>
+      <c r="D60" s="145"/>
       <c r="E60" s="87"/>
       <c r="F60" s="56"/>
       <c r="G60" s="56"/>
@@ -5466,11 +5479,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A61" s="157"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="173"/>
-      <c r="D61" s="143"/>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A61" s="144"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="183"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="87"/>
       <c r="F61" s="62"/>
       <c r="G61" s="62"/>
@@ -5517,11 +5530,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A62" s="210"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="173"/>
-      <c r="D62" s="143"/>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A62" s="159"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="183"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="87"/>
       <c r="F62" s="62"/>
       <c r="G62" s="62"/>
@@ -5568,11 +5581,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A63" s="210"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="173"/>
-      <c r="D63" s="143"/>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A63" s="159"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="183"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="87"/>
       <c r="F63" s="62"/>
       <c r="G63" s="62"/>
@@ -5619,11 +5632,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A64" s="157"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="173"/>
-      <c r="D64" s="143"/>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A64" s="144"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="183"/>
+      <c r="D64" s="145"/>
       <c r="E64" s="87"/>
       <c r="F64" s="62"/>
       <c r="G64" s="62"/>
@@ -5670,11 +5683,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A65" s="243"/>
-      <c r="B65" s="143"/>
-      <c r="C65" s="173"/>
-      <c r="D65" s="143"/>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A65" s="182"/>
+      <c r="B65" s="145"/>
+      <c r="C65" s="183"/>
+      <c r="D65" s="145"/>
       <c r="E65" s="87"/>
       <c r="F65" s="62"/>
       <c r="G65" s="62"/>
@@ -5721,11 +5734,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A66" s="202"/>
-      <c r="B66" s="143"/>
-      <c r="C66" s="173"/>
-      <c r="D66" s="143"/>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A66" s="239"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="183"/>
+      <c r="D66" s="145"/>
       <c r="E66" s="87"/>
       <c r="F66" s="62"/>
       <c r="G66" s="62"/>
@@ -5772,11 +5785,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="198"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="254"/>
-      <c r="D67" s="170"/>
+    <row r="67" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="237"/>
+      <c r="B67" s="152"/>
+      <c r="C67" s="151"/>
+      <c r="D67" s="152"/>
       <c r="E67" s="88"/>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
@@ -5823,15 +5836,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="164" t="s">
+    <row r="68" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="143"/>
-      <c r="C68" s="144" t="s">
+      <c r="B68" s="145"/>
+      <c r="C68" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="143"/>
+      <c r="D68" s="145"/>
       <c r="E68" s="87"/>
       <c r="F68" s="46"/>
       <c r="G68" s="46"/>
@@ -5878,11 +5891,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A69" s="157"/>
-      <c r="B69" s="143"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="143"/>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A69" s="144"/>
+      <c r="B69" s="145"/>
+      <c r="C69" s="249"/>
+      <c r="D69" s="145"/>
       <c r="E69" s="87"/>
       <c r="F69" s="52"/>
       <c r="G69" s="52"/>
@@ -5929,11 +5942,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A70" s="211"/>
-      <c r="B70" s="143"/>
-      <c r="C70" s="159"/>
-      <c r="D70" s="143"/>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A70" s="201"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="255"/>
+      <c r="D70" s="145"/>
       <c r="E70" s="87"/>
       <c r="F70" s="52"/>
       <c r="G70" s="52"/>
@@ -5980,11 +5993,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A71" s="180"/>
-      <c r="B71" s="143"/>
-      <c r="C71" s="157"/>
-      <c r="D71" s="143"/>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A71" s="203"/>
+      <c r="B71" s="145"/>
+      <c r="C71" s="144"/>
+      <c r="D71" s="145"/>
       <c r="E71" s="87"/>
       <c r="F71" s="52"/>
       <c r="G71" s="52"/>
@@ -6031,11 +6044,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A72" s="180"/>
-      <c r="B72" s="143"/>
-      <c r="C72" s="157"/>
-      <c r="D72" s="143"/>
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A72" s="203"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="144"/>
+      <c r="D72" s="145"/>
       <c r="E72" s="87"/>
       <c r="F72" s="52"/>
       <c r="G72" s="52"/>
@@ -6082,11 +6095,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A73" s="180"/>
-      <c r="B73" s="143"/>
-      <c r="C73" s="157"/>
-      <c r="D73" s="143"/>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A73" s="203"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="144"/>
+      <c r="D73" s="145"/>
       <c r="E73" s="87"/>
       <c r="F73" s="52"/>
       <c r="G73" s="52"/>
@@ -6133,11 +6146,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A74" s="180"/>
-      <c r="B74" s="143"/>
-      <c r="C74" s="157"/>
-      <c r="D74" s="143"/>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A74" s="203"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="144"/>
+      <c r="D74" s="145"/>
       <c r="E74" s="87"/>
       <c r="F74" s="52"/>
       <c r="G74" s="52"/>
@@ -6184,11 +6197,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A75" s="180"/>
-      <c r="B75" s="143"/>
-      <c r="C75" s="157"/>
-      <c r="D75" s="143"/>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A75" s="203"/>
+      <c r="B75" s="145"/>
+      <c r="C75" s="144"/>
+      <c r="D75" s="145"/>
       <c r="E75" s="87"/>
       <c r="F75" s="52"/>
       <c r="G75" s="52"/>
@@ -6235,11 +6248,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="157"/>
-      <c r="B76" s="143"/>
-      <c r="C76" s="233"/>
-      <c r="D76" s="143"/>
+    <row r="76" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="144"/>
+      <c r="B76" s="145"/>
+      <c r="C76" s="205"/>
+      <c r="D76" s="145"/>
       <c r="E76" s="87"/>
       <c r="F76" s="73"/>
       <c r="G76" s="73"/>
@@ -6286,15 +6299,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="164" t="s">
+    <row r="77" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="143"/>
-      <c r="C77" s="228" t="s">
+      <c r="B77" s="145"/>
+      <c r="C77" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="170"/>
+      <c r="D77" s="152"/>
       <c r="E77" s="87"/>
       <c r="F77" s="107"/>
       <c r="G77" s="107"/>
@@ -6341,11 +6354,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="207"/>
-      <c r="B78" s="208"/>
-      <c r="C78" s="155"/>
-      <c r="D78" s="156"/>
+    <row r="78" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="180"/>
+      <c r="B78" s="181"/>
+      <c r="C78" s="149"/>
+      <c r="D78" s="150"/>
       <c r="E78" s="112"/>
       <c r="F78" s="52"/>
       <c r="G78" s="52"/>
@@ -6398,11 +6411,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="207"/>
-      <c r="B79" s="208"/>
-      <c r="C79" s="155"/>
-      <c r="D79" s="156"/>
+    <row r="79" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="180"/>
+      <c r="B79" s="181"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="150"/>
       <c r="E79" s="112"/>
       <c r="F79" s="52"/>
       <c r="G79" s="52"/>
@@ -6449,11 +6462,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A80" s="157"/>
-      <c r="B80" s="143"/>
-      <c r="C80" s="245"/>
-      <c r="D80" s="162"/>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A80" s="144"/>
+      <c r="B80" s="145"/>
+      <c r="C80" s="185"/>
+      <c r="D80" s="186"/>
       <c r="E80" s="87"/>
       <c r="F80" s="52"/>
       <c r="G80" s="52"/>
@@ -6500,11 +6513,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="157"/>
-      <c r="B81" s="143"/>
-      <c r="C81" s="157"/>
-      <c r="D81" s="143"/>
+    <row r="81" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="144"/>
+      <c r="B81" s="145"/>
+      <c r="C81" s="144"/>
+      <c r="D81" s="145"/>
       <c r="E81" s="87"/>
       <c r="F81" s="52"/>
       <c r="G81" s="52"/>
@@ -6551,15 +6564,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="164" t="s">
+    <row r="82" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="143"/>
-      <c r="C82" s="175" t="s">
+      <c r="B82" s="145"/>
+      <c r="C82" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="143"/>
+      <c r="D82" s="145"/>
       <c r="E82" s="87"/>
       <c r="F82" s="108"/>
       <c r="G82" s="108"/>
@@ -6606,11 +6619,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="185"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="190"/>
-      <c r="D83" s="191"/>
+    <row r="83" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="175"/>
+      <c r="B83" s="145"/>
+      <c r="C83" s="231"/>
+      <c r="D83" s="165"/>
       <c r="E83" s="106"/>
       <c r="F83" s="126"/>
       <c r="G83" s="125"/>
@@ -6657,11 +6670,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="185"/>
-      <c r="B84" s="143"/>
-      <c r="C84" s="190"/>
-      <c r="D84" s="191"/>
+    <row r="84" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="175"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="231"/>
+      <c r="D84" s="165"/>
       <c r="E84" s="106"/>
       <c r="F84" s="127"/>
       <c r="G84" s="124"/>
@@ -6708,13 +6721,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A85" s="160"/>
-      <c r="B85" s="143"/>
-      <c r="C85" s="141" t="s">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A85" s="179"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="143"/>
+      <c r="D85" s="145"/>
       <c r="E85" s="87"/>
       <c r="F85" s="52"/>
       <c r="G85" s="52"/>
@@ -6761,11 +6774,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="157"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="157"/>
-      <c r="D86" s="143"/>
+    <row r="86" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="144"/>
+      <c r="B86" s="145"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="145"/>
       <c r="E86" s="87"/>
       <c r="F86" s="94"/>
       <c r="G86" s="94"/>
@@ -6812,15 +6825,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="164" t="s">
+    <row r="87" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="143"/>
-      <c r="C87" s="175" t="s">
+      <c r="B87" s="145"/>
+      <c r="C87" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="143"/>
+      <c r="D87" s="145"/>
       <c r="E87" s="87"/>
       <c r="F87" s="107"/>
       <c r="G87" s="107"/>
@@ -6867,13 +6880,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="185"/>
-      <c r="B88" s="143"/>
-      <c r="C88" s="141" t="s">
+    <row r="88" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="175"/>
+      <c r="B88" s="145"/>
+      <c r="C88" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="143"/>
+      <c r="D88" s="145"/>
       <c r="E88" s="106"/>
       <c r="F88" s="126"/>
       <c r="G88" s="125"/>
@@ -6920,9 +6933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A89" s="157"/>
-      <c r="B89" s="143"/>
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A89" s="144"/>
+      <c r="B89" s="145"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
       <c r="E89" s="87"/>
@@ -6971,11 +6984,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A90" s="157"/>
-      <c r="B90" s="143"/>
-      <c r="C90" s="157"/>
-      <c r="D90" s="143"/>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A90" s="144"/>
+      <c r="B90" s="145"/>
+      <c r="C90" s="144"/>
+      <c r="D90" s="145"/>
       <c r="E90" s="87"/>
       <c r="F90" s="52"/>
       <c r="G90" s="52"/>
@@ -7022,11 +7035,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="157"/>
-      <c r="B91" s="143"/>
-      <c r="C91" s="157"/>
-      <c r="D91" s="143"/>
+    <row r="91" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="144"/>
+      <c r="B91" s="145"/>
+      <c r="C91" s="144"/>
+      <c r="D91" s="145"/>
       <c r="E91" s="87"/>
       <c r="F91" s="73"/>
       <c r="G91" s="73"/>
@@ -7073,11 +7086,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="164" t="s">
+    <row r="92" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="143"/>
+      <c r="B92" s="145"/>
       <c r="C92" s="217" t="s">
         <v>29</v>
       </c>
@@ -7128,9 +7141,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A93" s="157"/>
-      <c r="B93" s="143"/>
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A93" s="144"/>
+      <c r="B93" s="145"/>
       <c r="C93" s="219"/>
       <c r="D93" s="220"/>
       <c r="E93" s="87"/>
@@ -7179,11 +7192,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A94" s="211"/>
-      <c r="B94" s="143"/>
-      <c r="C94" s="201"/>
-      <c r="D94" s="191"/>
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A94" s="201"/>
+      <c r="B94" s="145"/>
+      <c r="C94" s="164"/>
+      <c r="D94" s="165"/>
       <c r="E94" s="87"/>
       <c r="F94" s="52"/>
       <c r="G94" s="52"/>
@@ -7230,11 +7243,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A95" s="157"/>
-      <c r="B95" s="143"/>
-      <c r="C95" s="201"/>
-      <c r="D95" s="191"/>
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A95" s="144"/>
+      <c r="B95" s="145"/>
+      <c r="C95" s="164"/>
+      <c r="D95" s="165"/>
       <c r="E95" s="87"/>
       <c r="F95" s="52"/>
       <c r="G95" s="52"/>
@@ -7281,11 +7294,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A96" s="157"/>
-      <c r="B96" s="143"/>
-      <c r="C96" s="201"/>
-      <c r="D96" s="191"/>
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A96" s="144"/>
+      <c r="B96" s="145"/>
+      <c r="C96" s="164"/>
+      <c r="D96" s="165"/>
       <c r="E96" s="87"/>
       <c r="F96" s="52"/>
       <c r="G96" s="52"/>
@@ -7332,11 +7345,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A97" s="157"/>
-      <c r="B97" s="143"/>
-      <c r="C97" s="201"/>
-      <c r="D97" s="191"/>
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A97" s="144"/>
+      <c r="B97" s="145"/>
+      <c r="C97" s="164"/>
+      <c r="D97" s="165"/>
       <c r="E97" s="87"/>
       <c r="F97" s="52"/>
       <c r="G97" s="52"/>
@@ -7383,11 +7396,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A98" s="157"/>
-      <c r="B98" s="143"/>
-      <c r="C98" s="201"/>
-      <c r="D98" s="191"/>
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A98" s="144"/>
+      <c r="B98" s="145"/>
+      <c r="C98" s="164"/>
+      <c r="D98" s="165"/>
       <c r="E98" s="87"/>
       <c r="F98" s="52"/>
       <c r="G98" s="52"/>
@@ -7434,11 +7447,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A99" s="211"/>
-      <c r="B99" s="143"/>
-      <c r="C99" s="201"/>
-      <c r="D99" s="191"/>
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A99" s="201"/>
+      <c r="B99" s="145"/>
+      <c r="C99" s="164"/>
+      <c r="D99" s="165"/>
       <c r="E99" s="87"/>
       <c r="F99" s="52"/>
       <c r="G99" s="52"/>
@@ -7485,11 +7498,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A100" s="225"/>
-      <c r="B100" s="226"/>
-      <c r="C100" s="185"/>
-      <c r="D100" s="143"/>
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A100" s="209"/>
+      <c r="B100" s="210"/>
+      <c r="C100" s="175"/>
+      <c r="D100" s="145"/>
       <c r="E100" s="87"/>
       <c r="F100" s="52"/>
       <c r="G100" s="52"/>
@@ -7536,11 +7549,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="232"/>
-      <c r="B101" s="162"/>
-      <c r="C101" s="157"/>
-      <c r="D101" s="143"/>
+    <row r="101" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="204"/>
+      <c r="B101" s="186"/>
+      <c r="C101" s="144"/>
+      <c r="D101" s="145"/>
       <c r="E101" s="87"/>
       <c r="F101" s="73"/>
       <c r="G101" s="73"/>
@@ -7587,15 +7600,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="164" t="s">
+    <row r="102" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="143"/>
-      <c r="C102" s="175" t="s">
+      <c r="B102" s="145"/>
+      <c r="C102" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="143"/>
+      <c r="D102" s="145"/>
       <c r="E102" s="87"/>
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
@@ -7642,13 +7655,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A103" s="158"/>
-      <c r="B103" s="143"/>
-      <c r="C103" s="169" t="s">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A103" s="163"/>
+      <c r="B103" s="145"/>
+      <c r="C103" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="D103" s="143"/>
+      <c r="D103" s="145"/>
       <c r="E103" s="87"/>
       <c r="F103" s="52"/>
       <c r="G103" s="52"/>
@@ -7695,11 +7708,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A104" s="158"/>
-      <c r="B104" s="143"/>
-      <c r="C104" s="199"/>
-      <c r="D104" s="191"/>
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A104" s="163"/>
+      <c r="B104" s="145"/>
+      <c r="C104" s="170"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="87"/>
       <c r="F104" s="52"/>
       <c r="G104" s="52"/>
@@ -7752,11 +7765,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A105" s="158"/>
-      <c r="B105" s="143"/>
-      <c r="C105" s="160"/>
-      <c r="D105" s="143"/>
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A105" s="163"/>
+      <c r="B105" s="145"/>
+      <c r="C105" s="179"/>
+      <c r="D105" s="145"/>
       <c r="E105" s="87"/>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -7803,11 +7816,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A106" s="149"/>
-      <c r="B106" s="143"/>
-      <c r="C106" s="160"/>
-      <c r="D106" s="143"/>
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A106" s="146"/>
+      <c r="B106" s="145"/>
+      <c r="C106" s="179"/>
+      <c r="D106" s="145"/>
       <c r="E106" s="87"/>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -7854,11 +7867,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="157"/>
-      <c r="B107" s="143"/>
-      <c r="C107" s="157"/>
-      <c r="D107" s="143"/>
+    <row r="107" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="144"/>
+      <c r="B107" s="145"/>
+      <c r="C107" s="144"/>
+      <c r="D107" s="145"/>
       <c r="E107" s="87"/>
       <c r="F107" s="55"/>
       <c r="G107" s="55"/>
@@ -7905,15 +7918,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="164" t="s">
+    <row r="108" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="143"/>
-      <c r="C108" s="175" t="s">
+      <c r="B108" s="145"/>
+      <c r="C108" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="143"/>
+      <c r="D108" s="145"/>
       <c r="E108" s="87"/>
       <c r="F108" s="46"/>
       <c r="G108" s="46"/>
@@ -7960,13 +7973,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A109" s="150"/>
-      <c r="B109" s="143"/>
-      <c r="C109" s="169" t="s">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A109" s="187"/>
+      <c r="B109" s="145"/>
+      <c r="C109" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="143"/>
+      <c r="D109" s="145"/>
       <c r="E109" s="87"/>
       <c r="F109" s="52"/>
       <c r="G109" s="52"/>
@@ -7984,11 +7997,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A110" s="150"/>
-      <c r="B110" s="143"/>
-      <c r="C110" s="199"/>
-      <c r="D110" s="191"/>
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A110" s="187"/>
+      <c r="B110" s="145"/>
+      <c r="C110" s="170"/>
+      <c r="D110" s="165"/>
       <c r="E110" s="87"/>
       <c r="F110" s="52"/>
       <c r="G110" s="52"/>
@@ -8003,11 +8016,11 @@
       <c r="Q110" s="52"/>
       <c r="AT110" s="140"/>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A111" s="150"/>
-      <c r="B111" s="143"/>
-      <c r="C111" s="199"/>
-      <c r="D111" s="191"/>
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A111" s="187"/>
+      <c r="B111" s="145"/>
+      <c r="C111" s="170"/>
+      <c r="D111" s="165"/>
       <c r="E111" s="87"/>
       <c r="F111" s="52"/>
       <c r="G111" s="52"/>
@@ -8022,11 +8035,11 @@
       <c r="Q111" s="52"/>
       <c r="AT111" s="140"/>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A112" s="150"/>
-      <c r="B112" s="143"/>
-      <c r="C112" s="160"/>
-      <c r="D112" s="143"/>
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A112" s="187"/>
+      <c r="B112" s="145"/>
+      <c r="C112" s="179"/>
+      <c r="D112" s="145"/>
       <c r="E112" s="87"/>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -8044,11 +8057,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A113" s="149"/>
-      <c r="B113" s="143"/>
-      <c r="C113" s="160"/>
-      <c r="D113" s="143"/>
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A113" s="146"/>
+      <c r="B113" s="145"/>
+      <c r="C113" s="179"/>
+      <c r="D113" s="145"/>
       <c r="E113" s="87"/>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -8066,11 +8079,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="157"/>
-      <c r="B114" s="143"/>
-      <c r="C114" s="157"/>
-      <c r="D114" s="143"/>
+    <row r="114" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="144"/>
+      <c r="B114" s="145"/>
+      <c r="C114" s="144"/>
+      <c r="D114" s="145"/>
       <c r="E114" s="87"/>
       <c r="F114" s="55"/>
       <c r="G114" s="55"/>
@@ -8089,25 +8102,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A115" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="178"/>
-      <c r="C115" s="178"/>
-      <c r="D115" s="179"/>
-      <c r="E115" s="165" t="s">
+    <row r="115" spans="1:46" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="252"/>
+      <c r="C115" s="252"/>
+      <c r="D115" s="253"/>
+      <c r="E115" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="F115" s="166"/>
-      <c r="G115" s="166"/>
-      <c r="H115" s="166"/>
-      <c r="I115" s="166"/>
-      <c r="J115" s="166"/>
-      <c r="K115" s="166"/>
-      <c r="L115" s="166"/>
-      <c r="M115" s="166"/>
-      <c r="N115" s="166"/>
+      <c r="F115" s="155"/>
+      <c r="G115" s="155"/>
+      <c r="H115" s="155"/>
+      <c r="I115" s="155"/>
+      <c r="J115" s="155"/>
+      <c r="K115" s="155"/>
+      <c r="L115" s="155"/>
+      <c r="M115" s="155"/>
+      <c r="N115" s="155"/>
       <c r="O115" s="167"/>
       <c r="P115" s="23"/>
       <c r="Q115" s="67"/>
@@ -8144,17 +8157,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:46" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="227" t="s">
+    <row r="116" spans="1:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="B116" s="194"/>
-      <c r="C116" s="194"/>
-      <c r="D116" s="194"/>
-      <c r="E116" s="234" t="s">
+      <c r="B116" s="213"/>
+      <c r="C116" s="213"/>
+      <c r="D116" s="213"/>
+      <c r="E116" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="F116" s="152"/>
+      <c r="F116" s="197"/>
       <c r="G116" s="103"/>
       <c r="H116" s="102"/>
       <c r="I116" s="102" t="s">
@@ -8164,10 +8177,10 @@
       <c r="K116" s="103"/>
       <c r="L116" s="103"/>
       <c r="M116" s="103"/>
-      <c r="N116" s="253" t="s">
+      <c r="N116" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="O116" s="153"/>
+      <c r="O116" s="169"/>
       <c r="R116" s="49"/>
       <c r="S116" s="49"/>
       <c r="T116" s="49"/>
@@ -8182,32 +8195,32 @@
       <c r="AD116" s="23"/>
       <c r="AE116" s="40"/>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A117" s="148" t="s">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A117" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="B117" s="146"/>
-      <c r="C117" s="146"/>
-      <c r="D117" s="146"/>
-      <c r="E117" s="172">
+      <c r="B117" s="148"/>
+      <c r="C117" s="148"/>
+      <c r="D117" s="148"/>
+      <c r="E117" s="162">
         <f>AT9</f>
         <v>0</v>
       </c>
-      <c r="F117" s="146"/>
+      <c r="F117" s="148"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="184">
+      <c r="H117" s="173">
         <v>729</v>
       </c>
-      <c r="I117" s="146"/>
-      <c r="J117" s="146"/>
+      <c r="I117" s="148"/>
+      <c r="J117" s="148"/>
       <c r="K117" s="2"/>
-      <c r="L117" s="145">
+      <c r="L117" s="157">
         <f t="shared" ref="L117:L133" si="7">E117*H117</f>
         <v>0</v>
       </c>
-      <c r="M117" s="146"/>
-      <c r="N117" s="146"/>
-      <c r="O117" s="147"/>
+      <c r="M117" s="148"/>
+      <c r="N117" s="148"/>
+      <c r="O117" s="158"/>
       <c r="Q117" s="37"/>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
@@ -8223,68 +8236,68 @@
       <c r="AC117" s="2"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:46" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="148" t="s">
+    <row r="118" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="B118" s="146"/>
-      <c r="C118" s="146"/>
-      <c r="D118" s="146"/>
-      <c r="E118" s="172">
+      <c r="B118" s="148"/>
+      <c r="C118" s="148"/>
+      <c r="D118" s="148"/>
+      <c r="E118" s="162">
         <f>AT17</f>
         <v>0</v>
       </c>
-      <c r="F118" s="146"/>
+      <c r="F118" s="148"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="184">
+      <c r="H118" s="173">
         <v>701</v>
       </c>
-      <c r="I118" s="146"/>
-      <c r="J118" s="146"/>
+      <c r="I118" s="148"/>
+      <c r="J118" s="148"/>
       <c r="K118" s="2"/>
-      <c r="L118" s="145">
+      <c r="L118" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M118" s="146"/>
-      <c r="N118" s="146"/>
-      <c r="O118" s="147"/>
+      <c r="M118" s="148"/>
+      <c r="N118" s="148"/>
+      <c r="O118" s="158"/>
       <c r="R118" s="36"/>
       <c r="T118" s="2"/>
       <c r="Y118" s="42"/>
       <c r="Z118" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AA118" s="181"/>
-      <c r="AB118" s="146"/>
+      <c r="AA118" s="242"/>
+      <c r="AB118" s="148"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="148" t="s">
+    <row r="119" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="B119" s="146"/>
-      <c r="C119" s="146"/>
-      <c r="D119" s="146"/>
-      <c r="E119" s="172">
+      <c r="B119" s="148"/>
+      <c r="C119" s="148"/>
+      <c r="D119" s="148"/>
+      <c r="E119" s="162">
         <f>AA118</f>
         <v>0</v>
       </c>
-      <c r="F119" s="146"/>
+      <c r="F119" s="148"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="184">
+      <c r="H119" s="173">
         <v>350.5</v>
       </c>
-      <c r="I119" s="146"/>
-      <c r="J119" s="146"/>
+      <c r="I119" s="148"/>
+      <c r="J119" s="148"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="145">
+      <c r="L119" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M119" s="146"/>
-      <c r="N119" s="146"/>
-      <c r="O119" s="147"/>
+      <c r="M119" s="148"/>
+      <c r="N119" s="148"/>
+      <c r="O119" s="158"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="43"/>
       <c r="Z119" s="25"/>
@@ -8294,32 +8307,32 @@
       <c r="AD119" s="25"/>
       <c r="AE119" s="45"/>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A120" s="148" t="s">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A120" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B120" s="146"/>
-      <c r="C120" s="146"/>
-      <c r="D120" s="146"/>
-      <c r="E120" s="172">
+      <c r="B120" s="148"/>
+      <c r="C120" s="148"/>
+      <c r="D120" s="148"/>
+      <c r="E120" s="162">
         <f>AT48</f>
         <v>0</v>
       </c>
-      <c r="F120" s="146"/>
+      <c r="F120" s="148"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="184">
+      <c r="H120" s="173">
         <v>667</v>
       </c>
-      <c r="I120" s="146"/>
-      <c r="J120" s="146"/>
+      <c r="I120" s="148"/>
+      <c r="J120" s="148"/>
       <c r="K120" s="2"/>
-      <c r="L120" s="145">
+      <c r="L120" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M120" s="146"/>
-      <c r="N120" s="146"/>
-      <c r="O120" s="147"/>
+      <c r="M120" s="148"/>
+      <c r="N120" s="148"/>
+      <c r="O120" s="158"/>
       <c r="X120" s="33"/>
       <c r="Y120" s="33"/>
       <c r="Z120" s="33"/>
@@ -8330,32 +8343,32 @@
       <c r="AE120" s="33"/>
       <c r="AF120" s="33"/>
     </row>
-    <row r="121" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="148" t="s">
+    <row r="121" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="B121" s="146"/>
-      <c r="C121" s="146"/>
-      <c r="D121" s="146"/>
-      <c r="E121" s="172">
+      <c r="B121" s="148"/>
+      <c r="C121" s="148"/>
+      <c r="D121" s="148"/>
+      <c r="E121" s="162">
         <f>AA124</f>
         <v>0</v>
       </c>
-      <c r="F121" s="146"/>
+      <c r="F121" s="148"/>
       <c r="G121" s="2"/>
-      <c r="H121" s="184">
+      <c r="H121" s="173">
         <v>333.5</v>
       </c>
-      <c r="I121" s="146"/>
-      <c r="J121" s="146"/>
+      <c r="I121" s="148"/>
+      <c r="J121" s="148"/>
       <c r="K121" s="2"/>
-      <c r="L121" s="145">
+      <c r="L121" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M121" s="146"/>
-      <c r="N121" s="146"/>
-      <c r="O121" s="147"/>
+      <c r="M121" s="148"/>
+      <c r="N121" s="148"/>
+      <c r="O121" s="158"/>
       <c r="X121" s="33"/>
       <c r="Y121" s="33"/>
       <c r="Z121" s="33"/>
@@ -8366,32 +8379,32 @@
       <c r="AE121" s="33"/>
       <c r="AF121" s="33"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A122" s="148" t="s">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A122" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="146"/>
-      <c r="C122" s="146"/>
-      <c r="D122" s="146"/>
-      <c r="E122" s="172">
+      <c r="B122" s="148"/>
+      <c r="C122" s="148"/>
+      <c r="D122" s="148"/>
+      <c r="E122" s="162">
         <f>AT87</f>
         <v>0</v>
       </c>
-      <c r="F122" s="146"/>
+      <c r="F122" s="148"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="184">
+      <c r="H122" s="173">
         <v>224</v>
       </c>
-      <c r="I122" s="146"/>
-      <c r="J122" s="146"/>
+      <c r="I122" s="148"/>
+      <c r="J122" s="148"/>
       <c r="K122" s="2"/>
-      <c r="L122" s="145">
+      <c r="L122" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M122" s="146"/>
-      <c r="N122" s="146"/>
-      <c r="O122" s="147"/>
+      <c r="M122" s="148"/>
+      <c r="N122" s="148"/>
+      <c r="O122" s="158"/>
       <c r="Q122" s="49"/>
       <c r="R122" s="49"/>
       <c r="S122" s="49"/>
@@ -8405,32 +8418,32 @@
       <c r="AD122" s="23"/>
       <c r="AE122" s="40"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A123" s="148" t="s">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A123" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="B123" s="146"/>
-      <c r="C123" s="146"/>
-      <c r="D123" s="146"/>
-      <c r="E123" s="174">
+      <c r="B123" s="148"/>
+      <c r="C123" s="148"/>
+      <c r="D123" s="148"/>
+      <c r="E123" s="250">
         <f>AT82</f>
         <v>0</v>
       </c>
-      <c r="F123" s="146"/>
+      <c r="F123" s="148"/>
       <c r="G123" s="59"/>
-      <c r="H123" s="224">
+      <c r="H123" s="194">
         <v>796</v>
       </c>
-      <c r="I123" s="146"/>
-      <c r="J123" s="146"/>
+      <c r="I123" s="148"/>
+      <c r="J123" s="148"/>
       <c r="K123" s="59"/>
-      <c r="L123" s="197">
+      <c r="L123" s="236">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M123" s="146"/>
-      <c r="N123" s="146"/>
-      <c r="O123" s="147"/>
+      <c r="M123" s="148"/>
+      <c r="N123" s="148"/>
+      <c r="O123" s="158"/>
       <c r="Q123" s="37"/>
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
@@ -8445,66 +8458,66 @@
       <c r="AC123" s="2"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:46" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="250" t="s">
+    <row r="124" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="B124" s="146"/>
-      <c r="C124" s="146"/>
-      <c r="D124" s="146"/>
-      <c r="E124" s="174">
+      <c r="B124" s="148"/>
+      <c r="C124" s="148"/>
+      <c r="D124" s="148"/>
+      <c r="E124" s="250">
         <f>AT92</f>
         <v>0</v>
       </c>
-      <c r="F124" s="146"/>
+      <c r="F124" s="148"/>
       <c r="G124" s="2"/>
-      <c r="H124" s="224">
+      <c r="H124" s="194">
         <v>897</v>
       </c>
-      <c r="I124" s="146"/>
-      <c r="J124" s="146"/>
+      <c r="I124" s="148"/>
+      <c r="J124" s="148"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="145">
+      <c r="L124" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M124" s="146"/>
-      <c r="N124" s="146"/>
-      <c r="O124" s="147"/>
+      <c r="M124" s="148"/>
+      <c r="N124" s="148"/>
+      <c r="O124" s="158"/>
       <c r="R124" s="36"/>
-      <c r="S124" s="187"/>
-      <c r="T124" s="146"/>
+      <c r="S124" s="246"/>
+      <c r="T124" s="148"/>
       <c r="Y124" s="42"/>
       <c r="Z124" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AA124" s="181"/>
-      <c r="AB124" s="146"/>
+      <c r="AA124" s="242"/>
+      <c r="AB124" s="148"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="148" t="s">
+    <row r="125" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="B125" s="146"/>
-      <c r="C125" s="146"/>
-      <c r="D125" s="146"/>
-      <c r="E125" s="172"/>
-      <c r="F125" s="146"/>
+      <c r="B125" s="148"/>
+      <c r="C125" s="148"/>
+      <c r="D125" s="148"/>
+      <c r="E125" s="162"/>
+      <c r="F125" s="148"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="184">
+      <c r="H125" s="173">
         <v>667</v>
       </c>
-      <c r="I125" s="146"/>
-      <c r="J125" s="146"/>
+      <c r="I125" s="148"/>
+      <c r="J125" s="148"/>
       <c r="K125" s="2"/>
-      <c r="L125" s="145">
+      <c r="L125" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M125" s="146"/>
-      <c r="N125" s="146"/>
-      <c r="O125" s="147"/>
+      <c r="M125" s="148"/>
+      <c r="N125" s="148"/>
+      <c r="O125" s="158"/>
       <c r="Y125" s="43"/>
       <c r="Z125" s="25"/>
       <c r="AA125" s="44"/>
@@ -8513,166 +8526,198 @@
       <c r="AD125" s="25"/>
       <c r="AE125" s="45"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A126" s="148" t="s">
+    <row r="126" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="B126" s="146"/>
-      <c r="C126" s="146"/>
-      <c r="D126" s="146"/>
-      <c r="E126" s="172">
+      <c r="B126" s="148"/>
+      <c r="C126" s="148"/>
+      <c r="D126" s="148"/>
+      <c r="E126" s="162">
         <f>AT77</f>
         <v>0</v>
       </c>
-      <c r="F126" s="146"/>
+      <c r="F126" s="148"/>
       <c r="G126" s="2"/>
-      <c r="H126" s="184">
+      <c r="H126" s="173">
         <v>448</v>
       </c>
-      <c r="I126" s="146"/>
-      <c r="J126" s="146"/>
+      <c r="I126" s="148"/>
+      <c r="J126" s="148"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="145">
+      <c r="L126" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M126" s="146"/>
-      <c r="N126" s="146"/>
-      <c r="O126" s="147"/>
-    </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A127" s="148"/>
-      <c r="B127" s="146"/>
-      <c r="C127" s="146"/>
-      <c r="D127" s="146"/>
-      <c r="E127" s="172"/>
-      <c r="F127" s="146"/>
+      <c r="M126" s="148"/>
+      <c r="N126" s="148"/>
+      <c r="O126" s="158"/>
+    </row>
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A127" s="147"/>
+      <c r="B127" s="148"/>
+      <c r="C127" s="148"/>
+      <c r="D127" s="148"/>
+      <c r="E127" s="162"/>
+      <c r="F127" s="148"/>
       <c r="G127" s="2"/>
-      <c r="H127" s="184"/>
-      <c r="I127" s="146"/>
-      <c r="J127" s="146"/>
+      <c r="H127" s="173"/>
+      <c r="I127" s="148"/>
+      <c r="J127" s="148"/>
       <c r="K127" s="2"/>
-      <c r="L127" s="145">
+      <c r="L127" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M127" s="146"/>
-      <c r="N127" s="146"/>
-      <c r="O127" s="147"/>
+      <c r="M127" s="148"/>
+      <c r="N127" s="148"/>
+      <c r="O127" s="158"/>
       <c r="V127" s="5"/>
-    </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A128" s="148" t="s">
+      <c r="Y127" s="258"/>
+      <c r="Z127" s="142"/>
+      <c r="AA127" s="142"/>
+      <c r="AB127" s="142"/>
+      <c r="AC127" s="142"/>
+      <c r="AD127" s="142"/>
+      <c r="AE127" s="141"/>
+    </row>
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A128" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B128" s="146"/>
-      <c r="C128" s="146"/>
-      <c r="D128" s="146"/>
-      <c r="E128" s="172">
+      <c r="B128" s="148"/>
+      <c r="C128" s="148"/>
+      <c r="D128" s="148"/>
+      <c r="E128" s="162">
         <f>AT115</f>
         <v>0</v>
       </c>
-      <c r="F128" s="146"/>
+      <c r="F128" s="148"/>
       <c r="G128" s="2"/>
-      <c r="H128" s="184">
+      <c r="H128" s="173">
         <v>1233</v>
       </c>
-      <c r="I128" s="146"/>
-      <c r="J128" s="146"/>
+      <c r="I128" s="148"/>
+      <c r="J128" s="148"/>
       <c r="K128" s="2"/>
-      <c r="L128" s="145">
+      <c r="L128" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M128" s="146"/>
-      <c r="N128" s="146"/>
-      <c r="O128" s="147"/>
-    </row>
-    <row r="129" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="148" t="s">
+      <c r="M128" s="148"/>
+      <c r="N128" s="148"/>
+      <c r="O128" s="158"/>
+      <c r="Y128" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z128" s="259"/>
+      <c r="AA128" s="259"/>
+      <c r="AB128" s="259"/>
+      <c r="AC128" s="259"/>
+      <c r="AD128" s="259"/>
+      <c r="AE128" s="1"/>
+    </row>
+    <row r="129" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="B129" s="146"/>
-      <c r="C129" s="146"/>
-      <c r="D129" s="146"/>
-      <c r="E129" s="172">
+      <c r="B129" s="148"/>
+      <c r="C129" s="148"/>
+      <c r="D129" s="148"/>
+      <c r="E129" s="162">
         <f>AT102</f>
         <v>0</v>
       </c>
-      <c r="F129" s="146"/>
+      <c r="F129" s="148"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="184">
+      <c r="H129" s="173">
         <v>908</v>
       </c>
-      <c r="I129" s="146"/>
-      <c r="J129" s="146"/>
+      <c r="I129" s="148"/>
+      <c r="J129" s="148"/>
       <c r="K129" s="2"/>
-      <c r="L129" s="145">
+      <c r="L129" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M129" s="146"/>
-      <c r="N129" s="146"/>
-      <c r="O129" s="147"/>
+      <c r="M129" s="148"/>
+      <c r="N129" s="148"/>
+      <c r="O129" s="158"/>
       <c r="Q129" s="50"/>
       <c r="R129" s="50"/>
       <c r="S129" s="50"/>
       <c r="T129" s="50"/>
       <c r="U129" s="50"/>
       <c r="V129" s="50"/>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A130" s="148" t="s">
+      <c r="Y129" s="42"/>
+      <c r="Z129" s="260" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA129" s="261"/>
+      <c r="AB129" s="261"/>
+      <c r="AC129" s="259"/>
+      <c r="AD129" s="259"/>
+      <c r="AE129" s="1"/>
+    </row>
+    <row r="130" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B130" s="146"/>
-      <c r="C130" s="146"/>
-      <c r="D130" s="146"/>
-      <c r="E130" s="172">
+      <c r="B130" s="148"/>
+      <c r="C130" s="148"/>
+      <c r="D130" s="148"/>
+      <c r="E130" s="162">
         <f>AT108</f>
         <v>0</v>
       </c>
-      <c r="F130" s="146"/>
+      <c r="F130" s="148"/>
       <c r="G130" s="2"/>
-      <c r="H130" s="184">
+      <c r="H130" s="173">
         <v>1121</v>
       </c>
-      <c r="I130" s="146"/>
-      <c r="J130" s="146"/>
+      <c r="I130" s="148"/>
+      <c r="J130" s="148"/>
       <c r="K130" s="2"/>
-      <c r="L130" s="145">
+      <c r="L130" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M130" s="146"/>
-      <c r="N130" s="146"/>
-      <c r="O130" s="147"/>
+      <c r="M130" s="148"/>
+      <c r="N130" s="148"/>
+      <c r="O130" s="158"/>
       <c r="Q130" s="50"/>
       <c r="R130" s="50"/>
       <c r="S130" s="50"/>
       <c r="T130" s="50"/>
       <c r="U130" s="50"/>
       <c r="V130" s="50"/>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A131" s="148"/>
-      <c r="B131" s="146"/>
-      <c r="C131" s="146"/>
-      <c r="D131" s="146"/>
-      <c r="E131" s="186"/>
-      <c r="F131" s="146"/>
+      <c r="Y130" s="43"/>
+      <c r="Z130" s="143"/>
+      <c r="AA130" s="143"/>
+      <c r="AB130" s="143"/>
+      <c r="AC130" s="143"/>
+      <c r="AD130" s="143"/>
+      <c r="AE130" s="45"/>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A131" s="147"/>
+      <c r="B131" s="148"/>
+      <c r="C131" s="148"/>
+      <c r="D131" s="148"/>
+      <c r="E131" s="245"/>
+      <c r="F131" s="148"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="189"/>
-      <c r="I131" s="146"/>
-      <c r="J131" s="146"/>
+      <c r="H131" s="247"/>
+      <c r="I131" s="148"/>
+      <c r="J131" s="148"/>
       <c r="K131" s="2"/>
-      <c r="L131" s="145">
+      <c r="L131" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M131" s="146"/>
-      <c r="N131" s="146"/>
-      <c r="O131" s="147"/>
+      <c r="M131" s="148"/>
+      <c r="N131" s="148"/>
+      <c r="O131" s="158"/>
       <c r="Q131" s="50"/>
       <c r="R131" s="50"/>
       <c r="S131" s="50"/>
@@ -8680,32 +8725,32 @@
       <c r="U131" s="50"/>
       <c r="V131" s="50"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A132" s="148" t="s">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A132" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="B132" s="146"/>
-      <c r="C132" s="146"/>
-      <c r="D132" s="146"/>
-      <c r="E132" s="172">
+      <c r="B132" s="148"/>
+      <c r="C132" s="148"/>
+      <c r="D132" s="148"/>
+      <c r="E132" s="162">
         <f>AT25</f>
         <v>0</v>
       </c>
-      <c r="F132" s="146"/>
+      <c r="F132" s="148"/>
       <c r="G132" s="2"/>
-      <c r="H132" s="184">
+      <c r="H132" s="173">
         <v>3.9</v>
       </c>
-      <c r="I132" s="146"/>
-      <c r="J132" s="146"/>
+      <c r="I132" s="148"/>
+      <c r="J132" s="148"/>
       <c r="K132" s="2"/>
-      <c r="L132" s="145">
+      <c r="L132" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M132" s="146"/>
-      <c r="N132" s="146"/>
-      <c r="O132" s="147"/>
+      <c r="M132" s="148"/>
+      <c r="N132" s="148"/>
+      <c r="O132" s="158"/>
       <c r="Q132" s="50"/>
       <c r="R132" s="50"/>
       <c r="S132" s="50"/>
@@ -8713,115 +8758,115 @@
       <c r="U132" s="50"/>
       <c r="V132" s="50"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A133" s="148" t="s">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A133" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="B133" s="146"/>
-      <c r="C133" s="146"/>
-      <c r="D133" s="146"/>
-      <c r="E133" s="172">
+      <c r="B133" s="148"/>
+      <c r="C133" s="148"/>
+      <c r="D133" s="148"/>
+      <c r="E133" s="162">
         <f>AT68</f>
         <v>0</v>
       </c>
-      <c r="F133" s="146"/>
+      <c r="F133" s="148"/>
       <c r="G133" s="2"/>
-      <c r="H133" s="184">
+      <c r="H133" s="173">
         <v>4.5</v>
       </c>
-      <c r="I133" s="146"/>
-      <c r="J133" s="146"/>
+      <c r="I133" s="148"/>
+      <c r="J133" s="148"/>
       <c r="K133" s="2"/>
-      <c r="L133" s="145">
+      <c r="L133" s="157">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M133" s="146"/>
-      <c r="N133" s="146"/>
-      <c r="O133" s="147"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A134" s="148"/>
-      <c r="B134" s="146"/>
-      <c r="C134" s="146"/>
-      <c r="D134" s="146"/>
-      <c r="E134" s="188"/>
-      <c r="F134" s="146"/>
+      <c r="M133" s="148"/>
+      <c r="N133" s="148"/>
+      <c r="O133" s="158"/>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A134" s="147"/>
+      <c r="B134" s="148"/>
+      <c r="C134" s="148"/>
+      <c r="D134" s="148"/>
+      <c r="E134" s="216"/>
+      <c r="F134" s="148"/>
       <c r="G134" s="2"/>
-      <c r="H134" s="184"/>
-      <c r="I134" s="146"/>
-      <c r="J134" s="146"/>
+      <c r="H134" s="173"/>
+      <c r="I134" s="148"/>
+      <c r="J134" s="148"/>
       <c r="K134" s="6">
         <v>0.08</v>
       </c>
-      <c r="L134" s="145">
+      <c r="L134" s="157">
         <f>H134*1.08</f>
         <v>0</v>
       </c>
-      <c r="M134" s="146"/>
-      <c r="N134" s="146"/>
-      <c r="O134" s="147"/>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A135" s="148"/>
-      <c r="B135" s="146"/>
-      <c r="C135" s="146"/>
-      <c r="D135" s="146"/>
-      <c r="E135" s="188"/>
-      <c r="F135" s="146"/>
+      <c r="M134" s="148"/>
+      <c r="N134" s="148"/>
+      <c r="O134" s="158"/>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A135" s="147"/>
+      <c r="B135" s="148"/>
+      <c r="C135" s="148"/>
+      <c r="D135" s="148"/>
+      <c r="E135" s="216"/>
+      <c r="F135" s="148"/>
       <c r="G135" s="2"/>
-      <c r="H135" s="184"/>
-      <c r="I135" s="146"/>
-      <c r="J135" s="146"/>
+      <c r="H135" s="173"/>
+      <c r="I135" s="148"/>
+      <c r="J135" s="148"/>
       <c r="K135" s="6"/>
-      <c r="L135" s="145"/>
-      <c r="M135" s="146"/>
-      <c r="N135" s="146"/>
-      <c r="O135" s="147"/>
+      <c r="L135" s="157"/>
+      <c r="M135" s="148"/>
+      <c r="N135" s="148"/>
+      <c r="O135" s="158"/>
       <c r="P135" s="38"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A136" s="148"/>
-      <c r="B136" s="146"/>
-      <c r="C136" s="146"/>
-      <c r="D136" s="146"/>
-      <c r="E136" s="188"/>
-      <c r="F136" s="146"/>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A136" s="147"/>
+      <c r="B136" s="148"/>
+      <c r="C136" s="148"/>
+      <c r="D136" s="148"/>
+      <c r="E136" s="216"/>
+      <c r="F136" s="148"/>
       <c r="G136" s="2"/>
-      <c r="H136" s="184"/>
-      <c r="I136" s="146"/>
-      <c r="J136" s="146"/>
+      <c r="H136" s="173"/>
+      <c r="I136" s="148"/>
+      <c r="J136" s="148"/>
       <c r="K136" s="6"/>
-      <c r="L136" s="145"/>
-      <c r="M136" s="146"/>
-      <c r="N136" s="146"/>
-      <c r="O136" s="147"/>
+      <c r="L136" s="157"/>
+      <c r="M136" s="148"/>
+      <c r="N136" s="148"/>
+      <c r="O136" s="158"/>
       <c r="P136" s="6"/>
     </row>
-    <row r="137" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="246"/>
-      <c r="B137" s="247"/>
-      <c r="C137" s="247"/>
-      <c r="D137" s="247"/>
-      <c r="E137" s="249"/>
-      <c r="F137" s="166"/>
+    <row r="137" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="171"/>
+      <c r="B137" s="172"/>
+      <c r="C137" s="172"/>
+      <c r="D137" s="172"/>
+      <c r="E137" s="154"/>
+      <c r="F137" s="155"/>
       <c r="G137" s="44"/>
-      <c r="H137" s="183"/>
-      <c r="I137" s="166"/>
-      <c r="J137" s="166"/>
+      <c r="H137" s="244"/>
+      <c r="I137" s="155"/>
+      <c r="J137" s="155"/>
       <c r="K137" s="26">
         <v>0.08</v>
       </c>
-      <c r="L137" s="252">
+      <c r="L137" s="166">
         <f>H137*1.08</f>
         <v>0</v>
       </c>
-      <c r="M137" s="166"/>
-      <c r="N137" s="166"/>
+      <c r="M137" s="155"/>
+      <c r="N137" s="155"/>
       <c r="O137" s="167"/>
       <c r="P137" s="6"/>
     </row>
-    <row r="138" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -8829,17 +8874,17 @@
       <c r="K138" t="s">
         <v>54</v>
       </c>
-      <c r="L138" s="237">
+      <c r="L138" s="190">
         <f>SUM(L117:O137)</f>
         <v>0</v>
       </c>
-      <c r="M138" s="146"/>
-      <c r="N138" s="146"/>
-      <c r="O138" s="146"/>
+      <c r="M138" s="148"/>
+      <c r="N138" s="148"/>
+      <c r="O138" s="148"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>55</v>
       </c>
@@ -8851,7 +8896,7 @@
       <c r="G139" s="7"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:31" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A140" s="29" t="s">
         <v>56</v>
       </c>
@@ -8864,13 +8909,13 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="M140" s="216"/>
-      <c r="N140" s="146"/>
-      <c r="O140" s="146"/>
-    </row>
-    <row r="141" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A141" s="241"/>
-      <c r="B141" s="146"/>
+      <c r="M140" s="215"/>
+      <c r="N140" s="148"/>
+      <c r="O140" s="148"/>
+    </row>
+    <row r="141" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="177"/>
+      <c r="B141" s="148"/>
       <c r="C141" s="14"/>
       <c r="D141" s="8"/>
       <c r="R141" t="s">
@@ -8883,22 +8928,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A142" s="242"/>
-      <c r="B142" s="146"/>
+    <row r="142" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="178"/>
+      <c r="B142" s="148"/>
       <c r="C142" s="14"/>
       <c r="K142" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L142" s="182">
+      <c r="L142" s="243">
         <f>L138</f>
         <v>0</v>
       </c>
-      <c r="M142" s="146"/>
-      <c r="N142" s="146"/>
-      <c r="O142" s="146"/>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="M142" s="148"/>
+      <c r="N142" s="148"/>
+      <c r="O142" s="148"/>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>58</v>
       </c>
@@ -8906,13 +8951,13 @@
       <c r="C143" s="16"/>
       <c r="D143" s="10"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="75"/>
       <c r="B144" s="17"/>
       <c r="C144" s="18"/>
       <c r="D144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
         <v>59</v>
       </c>
@@ -8921,26 +8966,298 @@
       <c r="D145" s="10"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="325">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="L131:O131"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="Z2:AT3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="AA124:AB124"/>
+    <mergeCell ref="AA118:AB118"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="S124:T124"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E115:O115"/>
+    <mergeCell ref="AT4:AT6"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="L120:O120"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="L121:O121"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C92:D93"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E2:Y3"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="L128:O128"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A141:B142"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="L133:O133"/>
+    <mergeCell ref="L127:O127"/>
     <mergeCell ref="E137:F137"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A124:D124"/>
@@ -8965,297 +9282,25 @@
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="L137:O137"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="L130:O130"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="H125:J125"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="L133:O133"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="A141:B142"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H133:J133"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="L128:O128"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E2:Y3"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="AT4:AT6"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="L120:O120"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="L121:O121"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="AA124:AB124"/>
-    <mergeCell ref="AA118:AB118"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="S124:T124"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="H135:J135"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E115:O115"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="L131:O131"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="Z2:AT3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C101:D101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="33" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="33" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9266,7 +9311,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
